--- a/src/test/resources/CBP-Security User Stories.xlsx
+++ b/src/test/resources/CBP-Security User Stories.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="159">
   <si>
     <t># Iterations</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Claims testers do not have access to the web server recording, but could check financial record access.</t>
+  </si>
+  <si>
+    <t>CBPCL-71</t>
+  </si>
+  <si>
+    <t>no story</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62:L63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,7 +1122,9 @@
       <c r="K3" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="M3" s="15">
         <v>1</v>
       </c>
@@ -1204,7 +1212,9 @@
       <c r="K6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
@@ -1232,7 +1242,9 @@
       <c r="K7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
@@ -1260,7 +1272,9 @@
       <c r="K8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
@@ -2716,7 +2730,9 @@
       <c r="K57" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L57" s="15"/>
+      <c r="L57" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="M57" s="1">
         <v>1</v>
       </c>
@@ -2774,7 +2790,9 @@
       <c r="K59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L59" s="15"/>
+      <c r="L59" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="M59" s="1">
         <v>1</v>
       </c>
